--- a/biology/Zoologie/Agamidae/Agamidae.xlsx
+++ b/biology/Zoologie/Agamidae/Agamidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Agamidae sont une famille de sauriens. Elle a été définie par Johann Baptist von Spix en 1825.
 Elle contient plus de 400 espèces. Plusieurs genres de cette famille sont appelés agames.
@@ -512,9 +524,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de cette famille se rencontrent en Afrique (mais pas à Madagascar), en Australie, dans le sud de l'Asie et quelques-unes dans l'extrême sud-est de l'Europe. Durant l'ère du Tertiaire, cette répartition est beaucoup plus importante, la famille est plus largement présente en Europe, y compris en France. Elle est également connue en Amérique du Nord[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de cette famille se rencontrent en Afrique (mais pas à Madagascar), en Australie, dans le sud de l'Asie et quelques-unes dans l'extrême sud-est de l'Europe. Durant l'ère du Tertiaire, cette répartition est beaucoup plus importante, la famille est plus largement présente en Europe, y compris en France. Elle est également connue en Amérique du Nord.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Agamidae n'ont pas de spécificité particulière notable. Ce sont des lézards en général plutôt massifs, avec une tête en général bien marquée, et ils présentent des membres bien développés, pourvus de griffes. Ils ont cinq doigts à chaque membre (à part Sitana ponticeriana) et sont pour une grande majorité muets.
 Cette famille comprend des lézards de taille variée : les plus petites atteignent en général 20 cm avec la queue et les plus grandes espèces dépassent rarement un mètre.
@@ -577,7 +593,9 @@
           <t>Mode de vie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">On rencontre ces reptiles dans de nombreux pays et dans des conditions climatiques différentes.
 Ils sont déclinés en de nombreuses espèces dans des milieux arides ou semi-arides, mais aussi en plein désert comme Moloch horridus ou Pogona vitticeps, dont certaines populations vivent dans le grand désert australien.
@@ -617,7 +635,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les agamidés sont des reptiles au régime varié selon les espèces. La plupart consomment de petits arthropodes ou parfois de petits vertébrés. D'autres sont végétariens. Les autres enfin sont omnivores. Certaines espèces changent de régime alimentaire selon les saisons ou au cours de leur croissance.
 </t>
@@ -648,7 +668,9 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">La grande majorité des espèces d'agamidés sont ovipares, c'est-à-dire qu'elles pondent des œufs.
 </t>
@@ -679,9 +701,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon la base de données taxinomique de la Reptile Database[2] :
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon la base de données taxinomique de la Reptile Database :
 sous-famille des Agaminae Spix, 1825 :
 genre Acanthocercus Fitzinger, 1843
 genre Agama Daudin, 1802
@@ -810,9 +834,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le terme agamidae, semble venir de agama, nom donné à un lézard (voir les familles Agama et Agame des colons)[3],[4].
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le terme agamidae, semble venir de agama, nom donné à un lézard (voir les familles Agama et Agame des colons),.
 </t>
         </is>
       </c>
@@ -841,9 +867,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Leiolepis est parfois placé dans la famille des « Leiolepididae »[5],[6].
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Leiolepis est parfois placé dans la famille des « Leiolepididae »,.
 </t>
         </is>
       </c>
@@ -872,9 +900,11 @@
           <t>Les agames et l'homme</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les agames sont parfois mangés par les hommes, en particulier en Thaïlande[7].
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les agames sont parfois mangés par les hommes, en particulier en Thaïlande.
 </t>
         </is>
       </c>
